--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_92.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_92.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1381</v>
+        <v>2.6128</v>
       </c>
       <c r="J3" t="n">
-        <v>24.12</v>
+        <v>24.8</v>
       </c>
       <c r="K3" t="n">
-        <v>925.78</v>
+        <v>1163.54</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>991.7211</v>
+        <v>1292.308</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9558</v>
+        <v>2.4277</v>
       </c>
       <c r="J4" t="n">
-        <v>24.31</v>
+        <v>17.24</v>
       </c>
       <c r="K4" t="n">
-        <v>853.48</v>
+        <v>751.25</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>846.4687</v>
+        <v>1162.2636</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>9.2944</v>
+        <v>11.0088</v>
       </c>
       <c r="J5" t="n">
-        <v>26.67</v>
+        <v>27.08</v>
       </c>
       <c r="K5" t="n">
-        <v>4450.54</v>
+        <v>5352.82</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.210000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>3779.1374</v>
+        <v>4674.5562</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>11.2311</v>
+        <v>13.1626</v>
       </c>
       <c r="J6" t="n">
-        <v>27.59</v>
+        <v>27.8</v>
       </c>
       <c r="K6" t="n">
-        <v>5563.78</v>
+        <v>6568.35</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>7.13</v>
+        <v>6.71</v>
       </c>
       <c r="R6" t="n">
-        <v>3281.0786</v>
+        <v>3858.4281</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.9595</v>
+        <v>5.9031</v>
       </c>
       <c r="J7" t="n">
-        <v>31.56</v>
+        <v>31.89</v>
       </c>
       <c r="K7" t="n">
-        <v>2809.78</v>
+        <v>3380.03</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.96</v>
+        <v>4.79</v>
       </c>
       <c r="R7" t="n">
-        <v>2282.0379</v>
+        <v>2756.6226</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>59.4814</v>
+        <v>70.80589999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.24</v>
       </c>
       <c r="K8" t="n">
-        <v>4587.71</v>
+        <v>5394.44</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>9.82</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>4522.1439</v>
+        <v>5299.0681</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>14.5748</v>
+        <v>20.6597</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>510.79</v>
+        <v>666.01</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="R9" t="n">
-        <v>412.4158</v>
+        <v>511.7878</v>
       </c>
     </row>
   </sheetData>
